--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_20-14.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_20-14.xlsx
@@ -335,19 +335,19 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>فرشه اسنان SENSODYNE</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>فرش اسنان HASI</t>
-  </si>
-  <si>
-    <t>فرشه اسنان SENSODYNE</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t xml:space="preserve">كريم مرطب نفيا 60 مل </t>
@@ -2798,7 +2798,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -2816,7 +2816,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2842,7 +2842,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2850,7 +2850,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -2868,7 +2868,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2876,7 +2876,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
@@ -2954,7 +2954,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
